--- a/medicine/Psychotrope/Café_Tortoni/Café_Tortoni.xlsx
+++ b/medicine/Psychotrope/Café_Tortoni/Café_Tortoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Tortoni</t>
+          <t>Café_Tortoni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Café Tortoni est un café situé au 825 de l'avenida de Mayo, à Buenos Aires. Inauguré en 1858 par un immigrant français appelé Touan, il fut nommé Tortoni en référence au Café Tortoni de Paris, un établissement du boulevard des Italiens où se réunissait l'élite de la culture parisienne du XIXe siècle.
